--- a/data/CalCOFI Coding Form (Responses).xlsx
+++ b/data/CalCOFI Coding Form (Responses).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="433">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1169,9 +1169,6 @@
   </si>
   <si>
     <t>August</t>
-  </si>
-  <si>
-    <t>28-30</t>
   </si>
   <si>
     <t>panulirus interruptus</t>
@@ -6171,6 +6168,9 @@
       <c r="L32" s="13" t="s">
         <v>257</v>
       </c>
+      <c r="EL32" s="13">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="15">
@@ -7834,8 +7834,8 @@
       <c r="AW52" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="AX52" s="13" t="s">
-        <v>378</v>
+      <c r="AX52" s="13">
+        <v>28.0</v>
       </c>
       <c r="AZ52" s="13" t="s">
         <v>375</v>
@@ -7881,7 +7881,7 @@
         <v>240</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>243</v>
@@ -7893,16 +7893,16 @@
         <v>245</v>
       </c>
       <c r="L54" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O54" s="13" t="s">
         <v>380</v>
-      </c>
-      <c r="M54" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="N54" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="O54" s="13" t="s">
-        <v>381</v>
       </c>
       <c r="P54" s="13">
         <v>34.89</v>
@@ -7923,7 +7923,7 @@
         <v>253</v>
       </c>
       <c r="V54" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W54" s="13">
         <v>2008.0</v>
@@ -7938,7 +7938,7 @@
         <v>265</v>
       </c>
       <c r="AC54" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55">
@@ -7982,7 +7982,7 @@
         <v>244</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P55" s="16">
         <v>42.008</v>
@@ -8003,7 +8003,7 @@
         <v>244</v>
       </c>
       <c r="V55" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W55" s="16">
         <v>2002.0</v>
@@ -8050,7 +8050,7 @@
         <v>244</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P56" s="13">
         <v>36.0</v>
@@ -8071,7 +8071,7 @@
         <v>244</v>
       </c>
       <c r="V56" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="W56" s="13">
         <v>2015.0</v>
@@ -8080,13 +8080,13 @@
         <v>249</v>
       </c>
       <c r="Y56" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z56" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AE56" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF56" s="13" t="s">
         <v>243</v>
@@ -8098,7 +8098,7 @@
         <v>245</v>
       </c>
       <c r="AI56" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AJ56" s="13" t="s">
         <v>243</v>
@@ -8107,7 +8107,7 @@
         <v>244</v>
       </c>
       <c r="AL56" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM56" s="13">
         <v>36.0</v>
@@ -8128,7 +8128,7 @@
         <v>244</v>
       </c>
       <c r="AS56" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AT56" s="13">
         <v>2015.0</v>
@@ -8137,13 +8137,13 @@
         <v>249</v>
       </c>
       <c r="AV56" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AW56" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AZ56" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BB56" s="13" t="s">
         <v>266</v>
@@ -8158,7 +8158,7 @@
         <v>245</v>
       </c>
       <c r="BF56" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BG56" s="13" t="s">
         <v>243</v>
@@ -8167,7 +8167,7 @@
         <v>244</v>
       </c>
       <c r="BI56" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BJ56" s="13">
         <v>36.0</v>
@@ -8188,7 +8188,7 @@
         <v>244</v>
       </c>
       <c r="BP56" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BQ56" s="13">
         <v>2015.0</v>
@@ -8197,13 +8197,13 @@
         <v>249</v>
       </c>
       <c r="BS56" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BT56" s="13" t="s">
         <v>265</v>
       </c>
       <c r="BY56" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BZ56" s="13" t="s">
         <v>243</v>
@@ -8215,7 +8215,7 @@
         <v>245</v>
       </c>
       <c r="CC56" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="CD56" s="13" t="s">
         <v>243</v>
@@ -8224,7 +8224,7 @@
         <v>244</v>
       </c>
       <c r="CF56" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CG56" s="13">
         <v>36.0</v>
@@ -8245,7 +8245,7 @@
         <v>244</v>
       </c>
       <c r="CM56" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CN56" s="13">
         <v>2015.0</v>
@@ -8254,7 +8254,7 @@
         <v>249</v>
       </c>
       <c r="CP56" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="CQ56" s="13" t="s">
         <v>265</v>
@@ -8272,7 +8272,7 @@
         <v>245</v>
       </c>
       <c r="CZ56" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="DA56" s="13" t="s">
         <v>243</v>
@@ -8281,7 +8281,7 @@
         <v>244</v>
       </c>
       <c r="DC56" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DD56" s="13">
         <v>36.0</v>
@@ -8302,7 +8302,7 @@
         <v>244</v>
       </c>
       <c r="DJ56" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="DK56" s="13">
         <v>2015.0</v>
@@ -8311,7 +8311,7 @@
         <v>249</v>
       </c>
       <c r="DM56" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="DN56" s="13" t="s">
         <v>265</v>
@@ -8355,7 +8355,7 @@
         <v>244</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P57" s="16">
         <v>34.69</v>
@@ -8376,7 +8376,7 @@
         <v>248</v>
       </c>
       <c r="V57" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="W57" s="16">
         <v>2015.0</v>
@@ -8420,16 +8420,16 @@
         <v>245</v>
       </c>
       <c r="L58" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O58" s="13" t="s">
         <v>394</v>
-      </c>
-      <c r="M58" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="N58" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="O58" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="P58" s="13">
         <v>32.539285</v>
@@ -8450,7 +8450,7 @@
         <v>248</v>
       </c>
       <c r="V58" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W58" s="13">
         <v>2015.0</v>
@@ -8494,16 +8494,16 @@
         <v>245</v>
       </c>
       <c r="L59" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M59" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N59" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="O59" s="16" t="s">
         <v>397</v>
-      </c>
-      <c r="M59" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N59" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="O59" s="16" t="s">
-        <v>398</v>
       </c>
       <c r="P59" s="16">
         <v>32.533</v>
@@ -8524,7 +8524,7 @@
         <v>248</v>
       </c>
       <c r="V59" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="W59" s="16">
         <v>2014.0</v>
@@ -8574,7 +8574,7 @@
         <v>245</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>263</v>
@@ -8583,7 +8583,7 @@
         <v>248</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P60" s="13">
         <v>37.76687</v>
@@ -8604,7 +8604,7 @@
         <v>248</v>
       </c>
       <c r="V60" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W60" s="13">
         <v>2015.0</v>
@@ -8619,7 +8619,7 @@
         <v>249</v>
       </c>
       <c r="AC60" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61">
@@ -8740,7 +8740,7 @@
         <v>244</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P65" s="16">
         <v>32.95</v>
@@ -8761,7 +8761,7 @@
         <v>248</v>
       </c>
       <c r="V65" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W65" s="16">
         <v>2015.0</v>
@@ -8770,13 +8770,13 @@
         <v>249</v>
       </c>
       <c r="Y65" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z65" s="16" t="s">
         <v>265</v>
       </c>
       <c r="AE65" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF65" s="16" t="s">
         <v>243</v>
@@ -8788,7 +8788,7 @@
         <v>245</v>
       </c>
       <c r="AL65" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AM65" s="16">
         <v>32.95</v>
@@ -8809,7 +8809,7 @@
         <v>248</v>
       </c>
       <c r="AS65" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AT65" s="16">
         <v>2015.0</v>
@@ -8818,7 +8818,7 @@
         <v>249</v>
       </c>
       <c r="AV65" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AW65" s="16" t="s">
         <v>265</v>
@@ -8861,7 +8861,7 @@
         <v>241</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>243</v>
@@ -8873,16 +8873,16 @@
         <v>245</v>
       </c>
       <c r="L67" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="O67" s="16" t="s">
         <v>408</v>
-      </c>
-      <c r="M67" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N67" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="O67" s="16" t="s">
-        <v>409</v>
       </c>
       <c r="P67" s="16">
         <v>38.4</v>
@@ -8909,7 +8909,7 @@
         <v>249</v>
       </c>
       <c r="AE67" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF67" s="16" t="s">
         <v>243</v>
@@ -8921,16 +8921,16 @@
         <v>245</v>
       </c>
       <c r="AI67" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ67" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK67" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL67" s="16" t="s">
         <v>408</v>
-      </c>
-      <c r="AJ67" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK67" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="AL67" s="16" t="s">
-        <v>409</v>
       </c>
       <c r="AM67" s="16">
         <v>38.4</v>
@@ -8957,7 +8957,7 @@
         <v>249</v>
       </c>
       <c r="BB67" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BC67" s="16" t="s">
         <v>243</v>
@@ -8969,7 +8969,7 @@
         <v>245</v>
       </c>
       <c r="BF67" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BG67" s="16" t="s">
         <v>243</v>
@@ -8978,7 +8978,7 @@
         <v>244</v>
       </c>
       <c r="BI67" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BJ67" s="16">
         <v>34.5</v>
@@ -9037,7 +9037,7 @@
         <v>245</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P68" s="13">
         <v>36.35</v>
@@ -9058,7 +9058,7 @@
         <v>248</v>
       </c>
       <c r="V68" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W68" s="13">
         <v>2015.0</v>
@@ -9073,7 +9073,7 @@
         <v>265</v>
       </c>
       <c r="AC68" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE68" s="13" t="s">
         <v>308</v>
@@ -9088,7 +9088,7 @@
         <v>245</v>
       </c>
       <c r="AI68" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AJ68" s="13" t="s">
         <v>243</v>
@@ -9097,7 +9097,7 @@
         <v>244</v>
       </c>
       <c r="AL68" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AM68" s="13">
         <v>36.35</v>
@@ -9118,7 +9118,7 @@
         <v>248</v>
       </c>
       <c r="AS68" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AT68" s="13">
         <v>2015.0</v>
@@ -9171,7 +9171,7 @@
         <v>244</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P69" s="16">
         <v>36.4</v>
@@ -9192,7 +9192,7 @@
         <v>248</v>
       </c>
       <c r="V69" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="W69" s="16">
         <v>2015.0</v>
@@ -9201,7 +9201,7 @@
         <v>249</v>
       </c>
       <c r="IC69" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70">
@@ -9233,7 +9233,7 @@
         <v>245</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P70" s="13">
         <v>41.0</v>
@@ -9254,7 +9254,7 @@
         <v>248</v>
       </c>
       <c r="V70" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="W70" s="13">
         <v>2019.0</v>
@@ -9263,13 +9263,13 @@
         <v>249</v>
       </c>
       <c r="Y70" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Z70" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AE70" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF70" s="13" t="s">
         <v>243</v>
@@ -9281,7 +9281,7 @@
         <v>245</v>
       </c>
       <c r="AL70" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM70" s="13">
         <v>41.0</v>
@@ -9302,7 +9302,7 @@
         <v>248</v>
       </c>
       <c r="AS70" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AT70" s="13">
         <v>2019.0</v>
@@ -9334,7 +9334,7 @@
         <v>241</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>243</v>
@@ -9346,7 +9346,7 @@
         <v>245</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P71" s="16">
         <v>37.0</v>
@@ -9367,7 +9367,7 @@
         <v>248</v>
       </c>
       <c r="V71" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W71" s="16">
         <v>2019.0</v>
@@ -9393,7 +9393,7 @@
         <v>241</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I72" s="13" t="s">
         <v>263</v>
@@ -9405,16 +9405,16 @@
         <v>261</v>
       </c>
       <c r="L72" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O72" s="13" t="s">
         <v>426</v>
-      </c>
-      <c r="M72" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="N72" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="O72" s="13" t="s">
-        <v>427</v>
       </c>
       <c r="P72" s="13">
         <v>41.8</v>
@@ -9435,7 +9435,7 @@
         <v>248</v>
       </c>
       <c r="V72" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W72" s="13">
         <v>2020.0</v>
@@ -9479,7 +9479,7 @@
         <v>245</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P73" s="16">
         <v>41.0518</v>
@@ -9500,7 +9500,7 @@
         <v>248</v>
       </c>
       <c r="V73" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W73" s="16">
         <v>2018.0</v>
@@ -9524,7 +9524,7 @@
         <v>244</v>
       </c>
       <c r="AL73" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM73" s="16">
         <v>41.0518</v>
@@ -9545,7 +9545,7 @@
         <v>248</v>
       </c>
       <c r="AS73" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AT73" s="16">
         <v>2019.0</v>
@@ -9560,7 +9560,7 @@
         <v>265</v>
       </c>
       <c r="BB73" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="BC73" s="16" t="s">
         <v>243</v>
@@ -9572,7 +9572,7 @@
         <v>245</v>
       </c>
       <c r="BI73" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BJ73" s="16">
         <v>41.0518</v>
@@ -9593,7 +9593,7 @@
         <v>248</v>
       </c>
       <c r="BP73" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BQ73" s="16">
         <v>2018.0</v>
@@ -9608,7 +9608,7 @@
         <v>265</v>
       </c>
       <c r="BY73" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="BZ73" s="16" t="s">
         <v>243</v>
@@ -9617,7 +9617,7 @@
         <v>244</v>
       </c>
       <c r="CF73" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CG73" s="16">
         <v>41.0518</v>
@@ -9638,7 +9638,7 @@
         <v>248</v>
       </c>
       <c r="CM73" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CN73" s="16">
         <v>2019.0</v>
@@ -9670,7 +9670,7 @@
         <v>241</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I74" s="24" t="s">
         <v>243</v>
@@ -9682,7 +9682,7 @@
         <v>245</v>
       </c>
       <c r="O74" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P74" s="24">
         <v>41.0518</v>
@@ -9703,7 +9703,7 @@
         <v>248</v>
       </c>
       <c r="V74" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W74" s="24">
         <v>2014.0</v>
@@ -9712,7 +9712,7 @@
         <v>249</v>
       </c>
       <c r="AE74" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF74" s="24" t="s">
         <v>243</v>
@@ -9724,7 +9724,7 @@
         <v>245</v>
       </c>
       <c r="AL74" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM74" s="24">
         <v>41.0518</v>
@@ -9745,7 +9745,7 @@
         <v>248</v>
       </c>
       <c r="AS74" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AT74" s="24">
         <v>2015.0</v>

--- a/data/CalCOFI Coding Form (Responses).xlsx
+++ b/data/CalCOFI Coding Form (Responses).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="431">
   <si>
     <t>Timestamp</t>
   </si>
@@ -972,9 +972,6 @@
   </si>
   <si>
     <t>Jordana</t>
-  </si>
-  <si>
-    <t>euphasia eximia</t>
   </si>
   <si>
     <t xml:space="preserve">north, off Southern California in February 1958 (Fig. 131) </t>
@@ -1325,9 +1322,6 @@
   </si>
   <si>
     <t>winter 2018–2019 and 2019–2020</t>
-  </si>
-  <si>
-    <t>euphasia recurva</t>
   </si>
   <si>
     <t>Trinidad Head Line, Northern California</t>
@@ -5957,7 +5951,7 @@
         <v>241</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>243</v>
@@ -5969,7 +5963,7 @@
         <v>245</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P28" s="13">
         <v>34.4208</v>
@@ -5990,7 +5984,7 @@
         <v>253</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="W28" s="13">
         <v>1958.0</v>
@@ -6011,10 +6005,10 @@
         <v>265</v>
       </c>
       <c r="AC28" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="IC28" s="18" t="s">
         <v>318</v>
-      </c>
-      <c r="IC28" s="18" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="29">
@@ -6057,7 +6051,7 @@
         <v>240</v>
       </c>
       <c r="IC30" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31">
@@ -6089,16 +6083,16 @@
         <v>245</v>
       </c>
       <c r="L31" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>321</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>322</v>
       </c>
       <c r="P31" s="16">
         <v>34.453</v>
@@ -6119,7 +6113,7 @@
         <v>253</v>
       </c>
       <c r="V31" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W31" s="16">
         <v>1969.0</v>
@@ -6140,10 +6134,10 @@
         <v>265</v>
       </c>
       <c r="AC31" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="IC31" s="19" t="s">
         <v>324</v>
-      </c>
-      <c r="IC31" s="19" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="32">
@@ -6221,7 +6215,7 @@
         <v>245</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P34" s="13">
         <v>33.566</v>
@@ -6242,7 +6236,7 @@
         <v>248</v>
       </c>
       <c r="V34" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W34" s="13">
         <v>1982.0</v>
@@ -6268,7 +6262,7 @@
         <v>241</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>243</v>
@@ -6280,7 +6274,7 @@
         <v>245</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P35" s="16">
         <v>34.28</v>
@@ -6301,7 +6295,7 @@
         <v>253</v>
       </c>
       <c r="V35" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W35" s="16">
         <v>1958.0</v>
@@ -6322,7 +6316,7 @@
         <v>265</v>
       </c>
       <c r="AE35" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF35" s="16" t="s">
         <v>243</v>
@@ -6334,7 +6328,7 @@
         <v>245</v>
       </c>
       <c r="AL35" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM35" s="16">
         <v>40.2</v>
@@ -6355,7 +6349,7 @@
         <v>253</v>
       </c>
       <c r="AS35" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AT35" s="16">
         <v>1958.0</v>
@@ -6376,7 +6370,7 @@
         <v>265</v>
       </c>
       <c r="BB35" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BC35" s="16" t="s">
         <v>243</v>
@@ -6388,7 +6382,7 @@
         <v>245</v>
       </c>
       <c r="BI35" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BJ35" s="16">
         <v>40.2</v>
@@ -6409,7 +6403,7 @@
         <v>253</v>
       </c>
       <c r="BP35" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BQ35" s="16">
         <v>1958.0</v>
@@ -6442,7 +6436,7 @@
         <v>245</v>
       </c>
       <c r="CF35" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CG35" s="16">
         <v>36.182</v>
@@ -6463,7 +6457,7 @@
         <v>253</v>
       </c>
       <c r="CM35" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="CN35" s="16">
         <v>1958.0</v>
@@ -6496,7 +6490,7 @@
         <v>245</v>
       </c>
       <c r="DC35" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="DD35" s="16">
         <v>36.18</v>
@@ -6517,7 +6511,7 @@
         <v>253</v>
       </c>
       <c r="DJ35" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DK35" s="16">
         <v>1958.0</v>
@@ -6538,7 +6532,7 @@
         <v>265</v>
       </c>
       <c r="DS35" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="DT35" s="16" t="s">
         <v>243</v>
@@ -6550,7 +6544,7 @@
         <v>245</v>
       </c>
       <c r="DZ35" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="EA35" s="16">
         <v>40.44</v>
@@ -6571,7 +6565,7 @@
         <v>253</v>
       </c>
       <c r="EG35" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="EH35" s="16">
         <v>1958.0</v>
@@ -6690,7 +6684,7 @@
         <v>244</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P39" s="16">
         <v>33.73</v>
@@ -6711,7 +6705,7 @@
         <v>248</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W39" s="16">
         <v>1984.0</v>
@@ -6752,7 +6746,7 @@
         <v>245</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P40" s="13">
         <v>33.65</v>
@@ -6773,7 +6767,7 @@
         <v>253</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W40" s="13">
         <v>1984.0</v>
@@ -6782,7 +6776,7 @@
         <v>249</v>
       </c>
       <c r="Y40" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Z40" s="13" t="s">
         <v>265</v>
@@ -6806,7 +6800,7 @@
         <v>245</v>
       </c>
       <c r="AL40" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM40" s="13">
         <v>36.182</v>
@@ -6827,7 +6821,7 @@
         <v>253</v>
       </c>
       <c r="AS40" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AT40" s="13">
         <v>1984.0</v>
@@ -6836,7 +6830,7 @@
         <v>249</v>
       </c>
       <c r="AV40" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AW40" s="13" t="s">
         <v>265</v>
@@ -6909,7 +6903,7 @@
         <v>244</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P42" s="13">
         <v>32.93</v>
@@ -6930,7 +6924,7 @@
         <v>248</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W42" s="13">
         <v>1995.0</v>
@@ -6991,7 +6985,7 @@
         <v>245</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P44" s="13">
         <v>32.513</v>
@@ -7012,7 +7006,7 @@
         <v>244</v>
       </c>
       <c r="V44" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W44" s="13">
         <v>1998.0</v>
@@ -7021,7 +7015,7 @@
         <v>249</v>
       </c>
       <c r="Y44" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Z44" s="13" t="s">
         <v>265</v>
@@ -7076,7 +7070,7 @@
         <v>261</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P46" s="13">
         <v>48.59</v>
@@ -7097,7 +7091,7 @@
         <v>244</v>
       </c>
       <c r="V46" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W46" s="13">
         <v>1926.0</v>
@@ -7144,7 +7138,7 @@
         <v>244</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P47" s="16">
         <v>32.69</v>
@@ -7165,7 +7159,7 @@
         <v>244</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W47" s="16">
         <v>1941.0</v>
@@ -7201,7 +7195,7 @@
         <v>244</v>
       </c>
       <c r="AL47" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM47" s="16">
         <v>36.75</v>
@@ -7249,7 +7243,7 @@
         <v>244</v>
       </c>
       <c r="BI47" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BJ47" s="16">
         <v>36.75</v>
@@ -7297,7 +7291,7 @@
         <v>244</v>
       </c>
       <c r="CF47" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CG47" s="16">
         <v>32.6</v>
@@ -7345,7 +7339,7 @@
         <v>244</v>
       </c>
       <c r="DC47" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="DD47" s="16">
         <v>32.6</v>
@@ -7393,7 +7387,7 @@
         <v>244</v>
       </c>
       <c r="DZ47" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="EA47" s="16">
         <v>32.6</v>
@@ -7441,7 +7435,7 @@
         <v>244</v>
       </c>
       <c r="EW47" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="EX47" s="16">
         <v>32.6</v>
@@ -7528,7 +7522,7 @@
         <v>240</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>243</v>
@@ -7540,7 +7534,7 @@
         <v>245</v>
       </c>
       <c r="O50" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P50" s="13">
         <v>44.65</v>
@@ -7561,7 +7555,7 @@
         <v>248</v>
       </c>
       <c r="V50" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W50" s="13">
         <v>2010.0</v>
@@ -7576,7 +7570,7 @@
         <v>265</v>
       </c>
       <c r="AE50" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF50" s="13" t="s">
         <v>243</v>
@@ -7588,7 +7582,7 @@
         <v>245</v>
       </c>
       <c r="AL50" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM50" s="13">
         <v>44.65</v>
@@ -7609,7 +7603,7 @@
         <v>253</v>
       </c>
       <c r="AS50" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AT50" s="13">
         <v>2010.0</v>
@@ -7618,13 +7612,13 @@
         <v>265</v>
       </c>
       <c r="AV50" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AW50" s="13" t="s">
         <v>265</v>
       </c>
       <c r="IC50" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51">
@@ -7644,7 +7638,7 @@
         <v>241</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>243</v>
@@ -7656,16 +7650,16 @@
         <v>245</v>
       </c>
       <c r="L51" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="M51" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N51" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="O51" s="16" t="s">
         <v>368</v>
-      </c>
-      <c r="M51" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N51" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="O51" s="16" t="s">
-        <v>369</v>
       </c>
       <c r="P51" s="16">
         <v>54.67</v>
@@ -7686,7 +7680,7 @@
         <v>244</v>
       </c>
       <c r="V51" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W51" s="16">
         <v>2003.0</v>
@@ -7695,7 +7689,7 @@
         <v>265</v>
       </c>
       <c r="AC51" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52">
@@ -7715,7 +7709,7 @@
         <v>241</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>243</v>
@@ -7727,16 +7721,16 @@
         <v>245</v>
       </c>
       <c r="L52" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O52" s="13" t="s">
         <v>372</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="O52" s="13" t="s">
-        <v>373</v>
       </c>
       <c r="P52" s="13">
         <v>46.1667</v>
@@ -7757,7 +7751,7 @@
         <v>253</v>
       </c>
       <c r="V52" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="W52" s="13">
         <v>2009.0</v>
@@ -7775,10 +7769,10 @@
         <v>18.0</v>
       </c>
       <c r="AC52" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AE52" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF52" s="13" t="s">
         <v>243</v>
@@ -7790,16 +7784,16 @@
         <v>245</v>
       </c>
       <c r="AI52" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ52" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK52" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL52" s="13" t="s">
         <v>372</v>
-      </c>
-      <c r="AJ52" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK52" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="AL52" s="13" t="s">
-        <v>373</v>
       </c>
       <c r="AM52" s="13">
         <v>46.1667</v>
@@ -7820,7 +7814,7 @@
         <v>253</v>
       </c>
       <c r="AS52" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AT52" s="13">
         <v>2006.0</v>
@@ -7829,7 +7823,7 @@
         <v>249</v>
       </c>
       <c r="AV52" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AW52" s="13" t="s">
         <v>249</v>
@@ -7838,7 +7832,7 @@
         <v>28.0</v>
       </c>
       <c r="AZ52" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53">
@@ -7881,7 +7875,7 @@
         <v>240</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>243</v>
@@ -7893,16 +7887,16 @@
         <v>245</v>
       </c>
       <c r="L54" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O54" s="13" t="s">
         <v>379</v>
-      </c>
-      <c r="M54" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="N54" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="O54" s="13" t="s">
-        <v>380</v>
       </c>
       <c r="P54" s="13">
         <v>34.89</v>
@@ -7923,7 +7917,7 @@
         <v>253</v>
       </c>
       <c r="V54" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W54" s="13">
         <v>2008.0</v>
@@ -7932,13 +7926,13 @@
         <v>265</v>
       </c>
       <c r="Y54" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z54" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AC54" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55">
@@ -7961,7 +7955,7 @@
         <v>240</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>243</v>
@@ -7973,7 +7967,7 @@
         <v>245</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M55" s="16" t="s">
         <v>243</v>
@@ -7982,7 +7976,7 @@
         <v>244</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P55" s="16">
         <v>42.008</v>
@@ -8003,7 +7997,7 @@
         <v>244</v>
       </c>
       <c r="V55" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W55" s="16">
         <v>2002.0</v>
@@ -8050,7 +8044,7 @@
         <v>244</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P56" s="13">
         <v>36.0</v>
@@ -8071,7 +8065,7 @@
         <v>244</v>
       </c>
       <c r="V56" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W56" s="13">
         <v>2015.0</v>
@@ -8080,13 +8074,13 @@
         <v>249</v>
       </c>
       <c r="Y56" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Z56" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AE56" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF56" s="13" t="s">
         <v>243</v>
@@ -8098,7 +8092,7 @@
         <v>245</v>
       </c>
       <c r="AI56" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AJ56" s="13" t="s">
         <v>243</v>
@@ -8107,7 +8101,7 @@
         <v>244</v>
       </c>
       <c r="AL56" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM56" s="13">
         <v>36.0</v>
@@ -8128,7 +8122,7 @@
         <v>244</v>
       </c>
       <c r="AS56" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AT56" s="13">
         <v>2015.0</v>
@@ -8137,13 +8131,13 @@
         <v>249</v>
       </c>
       <c r="AV56" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW56" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AZ56" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BB56" s="13" t="s">
         <v>266</v>
@@ -8158,7 +8152,7 @@
         <v>245</v>
       </c>
       <c r="BF56" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BG56" s="13" t="s">
         <v>243</v>
@@ -8167,7 +8161,7 @@
         <v>244</v>
       </c>
       <c r="BI56" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BJ56" s="13">
         <v>36.0</v>
@@ -8188,7 +8182,7 @@
         <v>244</v>
       </c>
       <c r="BP56" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BQ56" s="13">
         <v>2015.0</v>
@@ -8197,13 +8191,13 @@
         <v>249</v>
       </c>
       <c r="BS56" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BT56" s="13" t="s">
         <v>265</v>
       </c>
       <c r="BY56" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BZ56" s="13" t="s">
         <v>243</v>
@@ -8215,7 +8209,7 @@
         <v>245</v>
       </c>
       <c r="CC56" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="CD56" s="13" t="s">
         <v>243</v>
@@ -8224,7 +8218,7 @@
         <v>244</v>
       </c>
       <c r="CF56" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="CG56" s="13">
         <v>36.0</v>
@@ -8245,7 +8239,7 @@
         <v>244</v>
       </c>
       <c r="CM56" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="CN56" s="13">
         <v>2015.0</v>
@@ -8254,7 +8248,7 @@
         <v>249</v>
       </c>
       <c r="CP56" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CQ56" s="13" t="s">
         <v>265</v>
@@ -8272,7 +8266,7 @@
         <v>245</v>
       </c>
       <c r="CZ56" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="DA56" s="13" t="s">
         <v>243</v>
@@ -8281,7 +8275,7 @@
         <v>244</v>
       </c>
       <c r="DC56" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="DD56" s="13">
         <v>36.0</v>
@@ -8302,7 +8296,7 @@
         <v>244</v>
       </c>
       <c r="DJ56" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="DK56" s="13">
         <v>2015.0</v>
@@ -8311,7 +8305,7 @@
         <v>249</v>
       </c>
       <c r="DM56" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="DN56" s="13" t="s">
         <v>265</v>
@@ -8355,7 +8349,7 @@
         <v>244</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P57" s="16">
         <v>34.69</v>
@@ -8376,7 +8370,7 @@
         <v>248</v>
       </c>
       <c r="V57" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W57" s="16">
         <v>2015.0</v>
@@ -8420,16 +8414,16 @@
         <v>245</v>
       </c>
       <c r="L58" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O58" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="M58" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="N58" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="O58" s="13" t="s">
-        <v>394</v>
       </c>
       <c r="P58" s="13">
         <v>32.539285</v>
@@ -8450,7 +8444,7 @@
         <v>248</v>
       </c>
       <c r="V58" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="W58" s="13">
         <v>2015.0</v>
@@ -8494,16 +8488,16 @@
         <v>245</v>
       </c>
       <c r="L59" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="M59" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N59" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="O59" s="16" t="s">
         <v>396</v>
-      </c>
-      <c r="M59" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N59" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="O59" s="16" t="s">
-        <v>397</v>
       </c>
       <c r="P59" s="16">
         <v>32.533</v>
@@ -8524,7 +8518,7 @@
         <v>248</v>
       </c>
       <c r="V59" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="W59" s="16">
         <v>2014.0</v>
@@ -8533,7 +8527,7 @@
         <v>249</v>
       </c>
       <c r="Y59" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z59" s="16" t="s">
         <v>249</v>
@@ -8574,7 +8568,7 @@
         <v>245</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>263</v>
@@ -8583,7 +8577,7 @@
         <v>248</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P60" s="13">
         <v>37.76687</v>
@@ -8604,7 +8598,7 @@
         <v>248</v>
       </c>
       <c r="V60" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W60" s="13">
         <v>2015.0</v>
@@ -8619,7 +8613,7 @@
         <v>249</v>
       </c>
       <c r="AC60" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61">
@@ -8740,7 +8734,7 @@
         <v>244</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P65" s="16">
         <v>32.95</v>
@@ -8761,7 +8755,7 @@
         <v>248</v>
       </c>
       <c r="V65" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W65" s="16">
         <v>2015.0</v>
@@ -8770,13 +8764,13 @@
         <v>249</v>
       </c>
       <c r="Y65" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Z65" s="16" t="s">
         <v>265</v>
       </c>
       <c r="AE65" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF65" s="16" t="s">
         <v>243</v>
@@ -8788,7 +8782,7 @@
         <v>245</v>
       </c>
       <c r="AL65" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AM65" s="16">
         <v>32.95</v>
@@ -8809,7 +8803,7 @@
         <v>248</v>
       </c>
       <c r="AS65" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AT65" s="16">
         <v>2015.0</v>
@@ -8818,7 +8812,7 @@
         <v>249</v>
       </c>
       <c r="AV65" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW65" s="16" t="s">
         <v>265</v>
@@ -8861,7 +8855,7 @@
         <v>241</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>243</v>
@@ -8873,16 +8867,16 @@
         <v>245</v>
       </c>
       <c r="L67" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="O67" s="16" t="s">
         <v>407</v>
-      </c>
-      <c r="M67" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N67" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="O67" s="16" t="s">
-        <v>408</v>
       </c>
       <c r="P67" s="16">
         <v>38.4</v>
@@ -8909,7 +8903,7 @@
         <v>249</v>
       </c>
       <c r="AE67" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF67" s="16" t="s">
         <v>243</v>
@@ -8921,16 +8915,16 @@
         <v>245</v>
       </c>
       <c r="AI67" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ67" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK67" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL67" s="16" t="s">
         <v>407</v>
-      </c>
-      <c r="AJ67" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK67" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="AL67" s="16" t="s">
-        <v>408</v>
       </c>
       <c r="AM67" s="16">
         <v>38.4</v>
@@ -8957,7 +8951,7 @@
         <v>249</v>
       </c>
       <c r="BB67" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BC67" s="16" t="s">
         <v>243</v>
@@ -8969,7 +8963,7 @@
         <v>245</v>
       </c>
       <c r="BF67" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BG67" s="16" t="s">
         <v>243</v>
@@ -8978,7 +8972,7 @@
         <v>244</v>
       </c>
       <c r="BI67" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BJ67" s="16">
         <v>34.5</v>
@@ -9037,7 +9031,7 @@
         <v>245</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P68" s="13">
         <v>36.35</v>
@@ -9058,7 +9052,7 @@
         <v>248</v>
       </c>
       <c r="V68" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W68" s="13">
         <v>2015.0</v>
@@ -9067,13 +9061,13 @@
         <v>249</v>
       </c>
       <c r="Y68" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Z68" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AC68" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE68" s="13" t="s">
         <v>308</v>
@@ -9088,7 +9082,7 @@
         <v>245</v>
       </c>
       <c r="AI68" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ68" s="13" t="s">
         <v>243</v>
@@ -9097,7 +9091,7 @@
         <v>244</v>
       </c>
       <c r="AL68" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AM68" s="13">
         <v>36.35</v>
@@ -9118,7 +9112,7 @@
         <v>248</v>
       </c>
       <c r="AS68" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AT68" s="13">
         <v>2015.0</v>
@@ -9127,7 +9121,7 @@
         <v>249</v>
       </c>
       <c r="AV68" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AW68" s="13" t="s">
         <v>265</v>
@@ -9171,7 +9165,7 @@
         <v>244</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P69" s="16">
         <v>36.4</v>
@@ -9192,7 +9186,7 @@
         <v>248</v>
       </c>
       <c r="V69" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="W69" s="16">
         <v>2015.0</v>
@@ -9201,7 +9195,7 @@
         <v>249</v>
       </c>
       <c r="IC69" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70">
@@ -9233,7 +9227,7 @@
         <v>245</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P70" s="13">
         <v>41.0</v>
@@ -9254,7 +9248,7 @@
         <v>248</v>
       </c>
       <c r="V70" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="W70" s="13">
         <v>2019.0</v>
@@ -9263,13 +9257,13 @@
         <v>249</v>
       </c>
       <c r="Y70" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Z70" s="13" t="s">
         <v>265</v>
       </c>
       <c r="AE70" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF70" s="13" t="s">
         <v>243</v>
@@ -9281,7 +9275,7 @@
         <v>245</v>
       </c>
       <c r="AL70" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AM70" s="13">
         <v>41.0</v>
@@ -9302,7 +9296,7 @@
         <v>248</v>
       </c>
       <c r="AS70" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AT70" s="13">
         <v>2019.0</v>
@@ -9334,7 +9328,7 @@
         <v>241</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>243</v>
@@ -9346,7 +9340,7 @@
         <v>245</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P71" s="16">
         <v>37.0</v>
@@ -9367,7 +9361,7 @@
         <v>248</v>
       </c>
       <c r="V71" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W71" s="16">
         <v>2019.0</v>
@@ -9393,7 +9387,7 @@
         <v>241</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I72" s="13" t="s">
         <v>263</v>
@@ -9405,16 +9399,16 @@
         <v>261</v>
       </c>
       <c r="L72" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O72" s="13" t="s">
         <v>425</v>
-      </c>
-      <c r="M72" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="N72" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="O72" s="13" t="s">
-        <v>426</v>
       </c>
       <c r="P72" s="13">
         <v>41.8</v>
@@ -9435,7 +9429,7 @@
         <v>248</v>
       </c>
       <c r="V72" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W72" s="13">
         <v>2020.0</v>
@@ -9479,7 +9473,7 @@
         <v>245</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P73" s="16">
         <v>41.0518</v>
@@ -9500,7 +9494,7 @@
         <v>248</v>
       </c>
       <c r="V73" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W73" s="16">
         <v>2018.0</v>
@@ -9524,7 +9518,7 @@
         <v>244</v>
       </c>
       <c r="AL73" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AM73" s="16">
         <v>41.0518</v>
@@ -9545,7 +9539,7 @@
         <v>248</v>
       </c>
       <c r="AS73" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AT73" s="16">
         <v>2019.0</v>
@@ -9560,7 +9554,7 @@
         <v>265</v>
       </c>
       <c r="BB73" s="16" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="BC73" s="16" t="s">
         <v>243</v>
@@ -9572,7 +9566,7 @@
         <v>245</v>
       </c>
       <c r="BI73" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BJ73" s="16">
         <v>41.0518</v>
@@ -9593,7 +9587,7 @@
         <v>248</v>
       </c>
       <c r="BP73" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BQ73" s="16">
         <v>2018.0</v>
@@ -9608,7 +9602,7 @@
         <v>265</v>
       </c>
       <c r="BY73" s="16" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="BZ73" s="16" t="s">
         <v>243</v>
@@ -9617,7 +9611,7 @@
         <v>244</v>
       </c>
       <c r="CF73" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="CG73" s="16">
         <v>41.0518</v>
@@ -9638,7 +9632,7 @@
         <v>248</v>
       </c>
       <c r="CM73" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CN73" s="16">
         <v>2019.0</v>
@@ -9670,7 +9664,7 @@
         <v>241</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I74" s="24" t="s">
         <v>243</v>
@@ -9682,7 +9676,7 @@
         <v>245</v>
       </c>
       <c r="O74" s="24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P74" s="24">
         <v>41.0518</v>
@@ -9703,7 +9697,7 @@
         <v>248</v>
       </c>
       <c r="V74" s="24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="W74" s="24">
         <v>2014.0</v>
@@ -9712,7 +9706,7 @@
         <v>249</v>
       </c>
       <c r="AE74" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF74" s="24" t="s">
         <v>243</v>
@@ -9724,7 +9718,7 @@
         <v>245</v>
       </c>
       <c r="AL74" s="24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AM74" s="24">
         <v>41.0518</v>
@@ -9745,7 +9739,7 @@
         <v>248</v>
       </c>
       <c r="AS74" s="24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AT74" s="24">
         <v>2015.0</v>

--- a/data/CalCOFI Coding Form (Responses).xlsx
+++ b/data/CalCOFI Coding Form (Responses).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="458">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1031,16 +1031,16 @@
     <t xml:space="preserve"> present in trawl catches in 1982-83 but not in 1981-82 was Pleuroncodes planipes</t>
   </si>
   <si>
+    <t>scoelcithrix danae</t>
+  </si>
+  <si>
+    <t>This copepod appears to migrate northward in the low-transport year</t>
+  </si>
+  <si>
+    <t>This copepod appears to migrate northward in the low-transport year; 30 March - 27 April 1958</t>
+  </si>
+  <si>
     <t>southern species</t>
-  </si>
-  <si>
-    <t>scoelcithrix danae</t>
-  </si>
-  <si>
-    <t>This copepod appears to migrate northward in the low-transport year</t>
-  </si>
-  <si>
-    <t>This copepod appears to migrate northward in the low-transport year; 30 March - 27 April 1958</t>
   </si>
   <si>
     <t>calanus minor</t>
@@ -6023,15 +6023,6 @@
       <c r="X30" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="EX30" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="EY30" s="15">
-        <v>32.5</v>
-      </c>
-      <c r="EZ30" s="15" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="16">
@@ -6050,7 +6041,7 @@
         <v>261</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I31" s="17" t="s">
         <v>263</v>
@@ -6062,7 +6053,7 @@
         <v>265</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P31" s="17">
         <v>34.28</v>
@@ -6083,7 +6074,7 @@
         <v>274</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W31" s="17">
         <v>1958.0</v>
@@ -6104,7 +6095,7 @@
         <v>284</v>
       </c>
       <c r="AC31" s="17" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AD31" s="17">
         <v>32.5</v>
@@ -6167,7 +6158,7 @@
         <v>284</v>
       </c>
       <c r="BB31" s="17" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="BC31" s="17">
         <v>32.5</v>
@@ -6230,7 +6221,7 @@
         <v>284</v>
       </c>
       <c r="CA31" s="17" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="CB31" s="17">
         <v>32.5</v>
@@ -6401,7 +6392,7 @@
         <v>284</v>
       </c>
       <c r="EX31" s="17" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EY31" s="17">
         <v>32.5</v>

--- a/data/CalCOFI Coding Form (Responses).xlsx
+++ b/data/CalCOFI Coding Form (Responses).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="468">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1419,6 +1419,36 @@
   </si>
   <si>
     <t>summer and fall 2014, and again in early 2015</t>
+  </si>
+  <si>
+    <t>Pyrosomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oregon (Newport Hydrographic Line)</t>
+  </si>
+  <si>
+    <t>first observed in the fall of 2016</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>tropical species</t>
+  </si>
+  <si>
+    <t>Phacellophora camchatica</t>
+  </si>
+  <si>
+    <t>Northern California Current, Oregon and Washington Coast</t>
+  </si>
+  <si>
+    <t>offshore and/or southern species</t>
+  </si>
+  <si>
+    <t>Velella velella</t>
+  </si>
+  <si>
+    <t>Thetys</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1828,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:IW74" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:IW76" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="257">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Email Address" id="2"/>
@@ -10340,104 +10370,339 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="31">
+      <c r="A74" s="14">
         <v>45838.52682344908</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D74" s="15">
         <v>73.0</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="H74" s="32" t="s">
+      <c r="H74" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="I74" s="32" t="s">
+      <c r="I74" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="J74" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="K74" s="32" t="s">
+      <c r="J74" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="K74" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="O74" s="32" t="s">
+      <c r="O74" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="P74" s="32">
+      <c r="P74" s="15">
         <v>41.0518</v>
       </c>
-      <c r="Q74" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="R74" s="32" t="s">
+      <c r="Q74" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="R74" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="S74" s="32">
+      <c r="S74" s="15">
         <v>-124.1514</v>
       </c>
-      <c r="T74" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="U74" s="32" t="s">
+      <c r="T74" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="U74" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="V74" s="32" t="s">
+      <c r="V74" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="W74" s="32">
+      <c r="W74" s="15">
         <v>2014.0</v>
       </c>
-      <c r="X74" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG74" s="32" t="s">
+      <c r="X74" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG74" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="AH74" s="32" t="s">
+      <c r="AH74" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="AI74" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="AJ74" s="32" t="s">
+      <c r="AI74" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ74" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="AN74" s="32" t="s">
+      <c r="AN74" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="AO74" s="32">
+      <c r="AO74" s="15">
         <v>41.0518</v>
       </c>
-      <c r="AP74" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ74" s="32" t="s">
+      <c r="AP74" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ74" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="AR74" s="32">
+      <c r="AR74" s="15">
         <v>-124.1514</v>
       </c>
-      <c r="AS74" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT74" s="32" t="s">
+      <c r="AS74" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT74" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="AU74" s="32" t="s">
+      <c r="AU74" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="AV74" s="32">
+      <c r="AV74" s="15">
         <v>2015.0</v>
       </c>
-      <c r="AW74" s="32" t="s">
-        <v>269</v>
+      <c r="AW74" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="16">
+        <v>45859.69089540509</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="D75" s="17">
+        <v>74.0</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="J75" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="K75" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="L75" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="M75" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="N75" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="O75" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="P75" s="17">
+        <v>44.65</v>
+      </c>
+      <c r="Q75" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="R75" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="S75" s="17">
+        <v>-124.0</v>
+      </c>
+      <c r="T75" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="U75" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="V75" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="W75" s="17">
+        <v>2016.0</v>
+      </c>
+      <c r="X75" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y75" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z75" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC75" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD75" s="17">
+        <v>32.5</v>
+      </c>
+      <c r="AE75" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="31">
+        <v>45859.69428454861</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="D76" s="32">
+        <v>75.0</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="H76" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J76" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K76" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="O76" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="P76" s="32">
+        <v>42.0</v>
+      </c>
+      <c r="Q76" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="R76" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="S76" s="32">
+        <v>-124.3</v>
+      </c>
+      <c r="T76" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="U76" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="V76" s="32">
+        <v>2015.0</v>
+      </c>
+      <c r="W76" s="32">
+        <v>2015.0</v>
+      </c>
+      <c r="X76" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC76" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG76" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH76" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI76" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ76" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN76" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="AO76" s="32">
+        <v>42.0</v>
+      </c>
+      <c r="AP76" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ76" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR76" s="32">
+        <v>-124.3</v>
+      </c>
+      <c r="AS76" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT76" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="AU76" s="32">
+        <v>2015.0</v>
+      </c>
+      <c r="AV76" s="32">
+        <v>2015.0</v>
+      </c>
+      <c r="AW76" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="BB76" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="BF76" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="BG76" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="BH76" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="BI76" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="BM76" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="BN76" s="32">
+        <v>42.0</v>
+      </c>
+      <c r="BO76" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BP76" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ76" s="32">
+        <v>-124.3</v>
+      </c>
+      <c r="BR76" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS76" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="BT76" s="32">
+        <v>2015.0</v>
+      </c>
+      <c r="BU76" s="32">
+        <v>2015.0</v>
+      </c>
+      <c r="BV76" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="CA76" s="32" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/data/CalCOFI Coding Form (Responses).xlsx
+++ b/data/CalCOFI Coding Form (Responses).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="467">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1436,16 +1436,13 @@
     <t>tropical species</t>
   </si>
   <si>
-    <t>Phacellophora camchatica</t>
+    <t>Velella velella</t>
   </si>
   <si>
     <t>Northern California Current, Oregon and Washington Coast</t>
   </si>
   <si>
     <t>offshore and/or southern species</t>
-  </si>
-  <si>
-    <t>Velella velella</t>
   </si>
   <si>
     <t>Thetys</t>
@@ -1458,7 +1455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1492,6 +1489,14 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1670,7 +1675,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1769,6 +1774,21 @@
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10569,139 +10589,111 @@
       <c r="E76" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="H76" s="32" t="s">
+      <c r="H76" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="I76" s="32" t="s">
+      <c r="I76" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="J76" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="K76" s="32" t="s">
+      <c r="J76" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="K76" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="O76" s="32" t="s">
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="P76" s="32">
+      <c r="P76" s="35">
         <v>42.0</v>
       </c>
-      <c r="Q76" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="R76" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="S76" s="32">
+      <c r="Q76" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="R76" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="S76" s="35">
         <v>-124.3</v>
       </c>
-      <c r="T76" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="U76" s="32" t="s">
+      <c r="T76" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="U76" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="V76" s="32">
+      <c r="V76" s="35">
         <v>2015.0</v>
       </c>
-      <c r="W76" s="32">
+      <c r="W76" s="35">
         <v>2015.0</v>
       </c>
-      <c r="X76" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC76" s="32" t="s">
+      <c r="X76" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="34"/>
+      <c r="AC76" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="AG76" s="32" t="s">
+      <c r="AD76" s="34"/>
+      <c r="AE76" s="34"/>
+      <c r="AF76" s="34"/>
+      <c r="AG76" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="AH76" s="32" t="s">
+      <c r="AH76" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="AI76" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="AJ76" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="AN76" s="32" t="s">
+      <c r="AI76" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ76" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK76" s="34"/>
+      <c r="AL76" s="34"/>
+      <c r="AM76" s="34"/>
+      <c r="AN76" s="36" t="s">
         <v>464</v>
       </c>
-      <c r="AO76" s="32">
+      <c r="AO76" s="37">
         <v>42.0</v>
       </c>
-      <c r="AP76" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ76" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="AR76" s="32">
+      <c r="AP76" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ76" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR76" s="37">
         <v>-124.3</v>
       </c>
-      <c r="AS76" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT76" s="32" t="s">
+      <c r="AS76" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT76" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="AU76" s="32">
+      <c r="AU76" s="37">
         <v>2015.0</v>
       </c>
-      <c r="AV76" s="32">
+      <c r="AV76" s="37">
         <v>2015.0</v>
       </c>
-      <c r="AW76" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BB76" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="BF76" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="BG76" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH76" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BI76" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="BM76" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="BN76" s="32">
-        <v>42.0</v>
-      </c>
-      <c r="BO76" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BP76" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BQ76" s="32">
-        <v>-124.3</v>
-      </c>
-      <c r="BR76" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS76" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="BT76" s="32">
-        <v>2015.0</v>
-      </c>
-      <c r="BU76" s="32">
-        <v>2015.0</v>
-      </c>
-      <c r="BV76" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="CA76" s="32" t="s">
+      <c r="AW76" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX76" s="34"/>
+      <c r="AY76" s="34"/>
+      <c r="AZ76" s="34"/>
+      <c r="BA76" s="34"/>
+      <c r="BB76" s="36" t="s">
         <v>465</v>
       </c>
     </row>

--- a/data/CalCOFI Coding Form (Responses).xlsx
+++ b/data/CalCOFI Coding Form (Responses).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="466">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1136,9 +1136,6 @@
   </si>
   <si>
     <t xml:space="preserve">penetrated into southern California in abundance in the spring and summer of 1941 </t>
-  </si>
-  <si>
-    <t>stranding in Monterey Bay, CA (Hubbs and Schyultz 1929)</t>
   </si>
   <si>
     <t>Pelagic red crabs in Monterey Bay (Hardwick and Spratt 1979)</t>
@@ -7091,7 +7088,7 @@
         <v>268</v>
       </c>
       <c r="AV43" s="17">
-        <v>1859.0</v>
+        <v>1969.0</v>
       </c>
       <c r="AW43" s="17" t="s">
         <v>269</v>
@@ -7121,7 +7118,7 @@
         <v>367</v>
       </c>
       <c r="BN43" s="17">
-        <v>36.75</v>
+        <v>32.6</v>
       </c>
       <c r="BO43" s="17" t="s">
         <v>267</v>
@@ -7130,7 +7127,7 @@
         <v>268</v>
       </c>
       <c r="BQ43" s="17">
-        <v>-122.06</v>
+        <v>-117.21</v>
       </c>
       <c r="BR43" s="17" t="s">
         <v>267</v>
@@ -7139,7 +7136,7 @@
         <v>268</v>
       </c>
       <c r="BU43" s="17">
-        <v>1969.0</v>
+        <v>1972.0</v>
       </c>
       <c r="BV43" s="17" t="s">
         <v>269</v>
@@ -7187,7 +7184,7 @@
         <v>268</v>
       </c>
       <c r="CT43" s="17">
-        <v>1972.0</v>
+        <v>2002.0</v>
       </c>
       <c r="CU43" s="17" t="s">
         <v>269</v>
@@ -7235,7 +7232,7 @@
         <v>268</v>
       </c>
       <c r="DS43" s="17">
-        <v>2002.0</v>
+        <v>1997.0</v>
       </c>
       <c r="DT43" s="17" t="s">
         <v>269</v>
@@ -7262,7 +7259,7 @@
         <v>264</v>
       </c>
       <c r="EJ43" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="EK43" s="17">
         <v>32.6</v>
@@ -7283,57 +7280,9 @@
         <v>268</v>
       </c>
       <c r="ER43" s="17">
-        <v>1997.0</v>
+        <v>1982.0</v>
       </c>
       <c r="ES43" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="FB43" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="FC43" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="FD43" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="FE43" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="FF43" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="FG43" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="FH43" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="FI43" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="FJ43" s="17">
-        <v>32.6</v>
-      </c>
-      <c r="FK43" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="FL43" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="FM43" s="17">
-        <v>-117.21</v>
-      </c>
-      <c r="FN43" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="FO43" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="FQ43" s="17">
-        <v>1982.0</v>
-      </c>
-      <c r="FR43" s="17" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7397,7 +7346,7 @@
         <v>260</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>263</v>
@@ -7409,7 +7358,7 @@
         <v>265</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P46" s="15">
         <v>44.65</v>
@@ -7430,7 +7379,7 @@
         <v>268</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W46" s="15">
         <v>2010.0</v>
@@ -7447,7 +7396,7 @@
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AG46" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AH46" s="15" t="s">
         <v>263</v>
@@ -7459,7 +7408,7 @@
         <v>265</v>
       </c>
       <c r="AN46" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AO46" s="15">
         <v>44.65</v>
@@ -7480,7 +7429,7 @@
         <v>274</v>
       </c>
       <c r="AU46" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AV46" s="15">
         <v>2010.0</v>
@@ -7489,7 +7438,7 @@
         <v>284</v>
       </c>
       <c r="AX46" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AY46" s="15" t="s">
         <v>284</v>
@@ -7513,7 +7462,7 @@
       <c r="IU46" s="19"/>
       <c r="IV46" s="19"/>
       <c r="IW46" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47">
@@ -7533,7 +7482,7 @@
         <v>261</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>263</v>
@@ -7545,7 +7494,7 @@
         <v>265</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M47" s="17" t="s">
         <v>263</v>
@@ -7554,7 +7503,7 @@
         <v>264</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P47" s="17">
         <v>54.67</v>
@@ -7575,7 +7524,7 @@
         <v>264</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W47" s="17">
         <v>2003.0</v>
@@ -7584,7 +7533,7 @@
         <v>284</v>
       </c>
       <c r="AC47" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AD47" s="17">
         <v>20.5</v>
@@ -7610,7 +7559,7 @@
         <v>261</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>263</v>
@@ -7622,7 +7571,7 @@
         <v>265</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M48" s="15" t="s">
         <v>263</v>
@@ -7631,7 +7580,7 @@
         <v>264</v>
       </c>
       <c r="O48" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P48" s="15">
         <v>46.1667</v>
@@ -7652,7 +7601,7 @@
         <v>274</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W48" s="15">
         <v>2009.0</v>
@@ -7670,10 +7619,10 @@
         <v>18.0</v>
       </c>
       <c r="AC48" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG48" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AH48" s="15" t="s">
         <v>263</v>
@@ -7685,7 +7634,7 @@
         <v>265</v>
       </c>
       <c r="AK48" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL48" s="15" t="s">
         <v>263</v>
@@ -7694,7 +7643,7 @@
         <v>264</v>
       </c>
       <c r="AN48" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AO48" s="15">
         <v>46.1667</v>
@@ -7715,7 +7664,7 @@
         <v>274</v>
       </c>
       <c r="AU48" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AV48" s="15">
         <v>2006.0</v>
@@ -7724,7 +7673,7 @@
         <v>269</v>
       </c>
       <c r="AX48" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY48" s="15" t="s">
         <v>269</v>
@@ -7733,7 +7682,7 @@
         <v>28.0</v>
       </c>
       <c r="BB48" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49">
@@ -7776,7 +7725,7 @@
         <v>260</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>263</v>
@@ -7788,7 +7737,7 @@
         <v>265</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M50" s="15" t="s">
         <v>263</v>
@@ -7797,7 +7746,7 @@
         <v>264</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P50" s="15">
         <v>34.89</v>
@@ -7818,7 +7767,7 @@
         <v>274</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W50" s="15">
         <v>2008.0</v>
@@ -7827,13 +7776,13 @@
         <v>284</v>
       </c>
       <c r="Y50" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Z50" s="15" t="s">
         <v>284</v>
       </c>
       <c r="AC50" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51">
@@ -7856,7 +7805,7 @@
         <v>260</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I51" s="17" t="s">
         <v>263</v>
@@ -7868,7 +7817,7 @@
         <v>265</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M51" s="17" t="s">
         <v>263</v>
@@ -7877,7 +7826,7 @@
         <v>264</v>
       </c>
       <c r="O51" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P51" s="17">
         <v>42.008</v>
@@ -7898,7 +7847,7 @@
         <v>264</v>
       </c>
       <c r="V51" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="W51" s="17">
         <v>2002.0</v>
@@ -7945,7 +7894,7 @@
         <v>264</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P52" s="15">
         <v>36.0</v>
@@ -7966,7 +7915,7 @@
         <v>264</v>
       </c>
       <c r="V52" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W52" s="15">
         <v>2015.0</v>
@@ -7975,13 +7924,13 @@
         <v>269</v>
       </c>
       <c r="Y52" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Z52" s="15" t="s">
         <v>284</v>
       </c>
       <c r="AG52" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH52" s="15" t="s">
         <v>263</v>
@@ -7993,7 +7942,7 @@
         <v>265</v>
       </c>
       <c r="AK52" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL52" s="15" t="s">
         <v>263</v>
@@ -8002,7 +7951,7 @@
         <v>264</v>
       </c>
       <c r="AN52" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AO52" s="15">
         <v>36.0</v>
@@ -8023,7 +7972,7 @@
         <v>264</v>
       </c>
       <c r="AU52" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AV52" s="15">
         <v>2015.0</v>
@@ -8032,13 +7981,13 @@
         <v>269</v>
       </c>
       <c r="AX52" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AY52" s="15" t="s">
         <v>284</v>
       </c>
       <c r="BB52" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BF52" s="15" t="s">
         <v>316</v>
@@ -8053,7 +8002,7 @@
         <v>265</v>
       </c>
       <c r="BJ52" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BK52" s="15" t="s">
         <v>263</v>
@@ -8062,7 +8011,7 @@
         <v>264</v>
       </c>
       <c r="BM52" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BN52" s="15">
         <v>36.0</v>
@@ -8083,7 +8032,7 @@
         <v>264</v>
       </c>
       <c r="BT52" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BU52" s="15">
         <v>2015.0</v>
@@ -8092,13 +8041,13 @@
         <v>269</v>
       </c>
       <c r="BW52" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BX52" s="15" t="s">
         <v>284</v>
       </c>
       <c r="CE52" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="CF52" s="15" t="s">
         <v>263</v>
@@ -8110,7 +8059,7 @@
         <v>265</v>
       </c>
       <c r="CI52" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="CJ52" s="15" t="s">
         <v>263</v>
@@ -8119,7 +8068,7 @@
         <v>264</v>
       </c>
       <c r="CL52" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CM52" s="15">
         <v>36.0</v>
@@ -8140,7 +8089,7 @@
         <v>264</v>
       </c>
       <c r="CS52" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="CT52" s="15">
         <v>2015.0</v>
@@ -8149,7 +8098,7 @@
         <v>269</v>
       </c>
       <c r="CV52" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CW52" s="15" t="s">
         <v>284</v>
@@ -8167,7 +8116,7 @@
         <v>265</v>
       </c>
       <c r="DH52" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="DI52" s="15" t="s">
         <v>263</v>
@@ -8176,7 +8125,7 @@
         <v>264</v>
       </c>
       <c r="DK52" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DL52" s="15">
         <v>36.0</v>
@@ -8197,7 +8146,7 @@
         <v>264</v>
       </c>
       <c r="DR52" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="DS52" s="15">
         <v>2015.0</v>
@@ -8206,7 +8155,7 @@
         <v>269</v>
       </c>
       <c r="DU52" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="DV52" s="15" t="s">
         <v>284</v>
@@ -8250,7 +8199,7 @@
         <v>264</v>
       </c>
       <c r="O53" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P53" s="17">
         <v>34.69</v>
@@ -8271,7 +8220,7 @@
         <v>268</v>
       </c>
       <c r="V53" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W53" s="17">
         <v>2015.0</v>
@@ -8291,10 +8240,10 @@
         <v>45791.837182337964</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>404</v>
       </c>
       <c r="D54" s="15">
         <v>53.0</v>
@@ -8315,7 +8264,7 @@
         <v>265</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M54" s="15" t="s">
         <v>263</v>
@@ -8324,7 +8273,7 @@
         <v>264</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P54" s="15">
         <v>32.539285</v>
@@ -8345,7 +8294,7 @@
         <v>268</v>
       </c>
       <c r="V54" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="W54" s="15">
         <v>2015.0</v>
@@ -8365,10 +8314,10 @@
         <v>45791.86866706019</v>
       </c>
       <c r="B55" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>404</v>
       </c>
       <c r="D55" s="17">
         <v>54.0</v>
@@ -8389,7 +8338,7 @@
         <v>265</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M55" s="17" t="s">
         <v>263</v>
@@ -8398,7 +8347,7 @@
         <v>264</v>
       </c>
       <c r="O55" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P55" s="17">
         <v>32.533</v>
@@ -8419,7 +8368,7 @@
         <v>268</v>
       </c>
       <c r="V55" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W55" s="17">
         <v>2014.0</v>
@@ -8445,10 +8394,10 @@
         <v>45792.35618832176</v>
       </c>
       <c r="B56" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>404</v>
       </c>
       <c r="D56" s="15">
         <v>55.0</v>
@@ -8469,7 +8418,7 @@
         <v>265</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M56" s="15" t="s">
         <v>288</v>
@@ -8478,7 +8427,7 @@
         <v>268</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P56" s="15">
         <v>37.76687</v>
@@ -8499,7 +8448,7 @@
         <v>268</v>
       </c>
       <c r="V56" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W56" s="15">
         <v>2015.0</v>
@@ -8514,7 +8463,7 @@
         <v>269</v>
       </c>
       <c r="AC56" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57">
@@ -8522,10 +8471,10 @@
         <v>45793.58131771991</v>
       </c>
       <c r="B57" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>404</v>
       </c>
       <c r="D57" s="17">
         <v>56.0</v>
@@ -8542,10 +8491,10 @@
         <v>45793.583910497684</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>404</v>
       </c>
       <c r="D58" s="15">
         <v>57.0</v>
@@ -8562,10 +8511,10 @@
         <v>45793.58475472222</v>
       </c>
       <c r="B59" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>404</v>
       </c>
       <c r="D59" s="17">
         <v>58.0</v>
@@ -8582,10 +8531,10 @@
         <v>45793.58569091435</v>
       </c>
       <c r="B60" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>404</v>
       </c>
       <c r="D60" s="15">
         <v>59.0</v>
@@ -8602,10 +8551,10 @@
         <v>45793.5979859375</v>
       </c>
       <c r="B61" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>404</v>
       </c>
       <c r="D61" s="17">
         <v>60.0</v>
@@ -8635,7 +8584,7 @@
         <v>264</v>
       </c>
       <c r="O61" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P61" s="17">
         <v>32.95</v>
@@ -8656,7 +8605,7 @@
         <v>268</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="W61" s="17">
         <v>2015.0</v>
@@ -8665,13 +8614,13 @@
         <v>269</v>
       </c>
       <c r="Y61" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Z61" s="17" t="s">
         <v>284</v>
       </c>
       <c r="AG61" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AH61" s="17" t="s">
         <v>263</v>
@@ -8683,7 +8632,7 @@
         <v>265</v>
       </c>
       <c r="AN61" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO61" s="17">
         <v>32.95</v>
@@ -8704,7 +8653,7 @@
         <v>268</v>
       </c>
       <c r="AU61" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AV61" s="17">
         <v>2015.0</v>
@@ -8713,7 +8662,7 @@
         <v>269</v>
       </c>
       <c r="AX61" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AY61" s="17" t="s">
         <v>284</v>
@@ -8756,7 +8705,7 @@
         <v>261</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I63" s="17" t="s">
         <v>263</v>
@@ -8768,7 +8717,7 @@
         <v>265</v>
       </c>
       <c r="L63" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M63" s="17" t="s">
         <v>263</v>
@@ -8777,7 +8726,7 @@
         <v>264</v>
       </c>
       <c r="O63" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P63" s="17">
         <v>38.4</v>
@@ -8804,7 +8753,7 @@
         <v>269</v>
       </c>
       <c r="AG63" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH63" s="17" t="s">
         <v>263</v>
@@ -8816,7 +8765,7 @@
         <v>265</v>
       </c>
       <c r="AK63" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL63" s="17" t="s">
         <v>263</v>
@@ -8825,7 +8774,7 @@
         <v>264</v>
       </c>
       <c r="AN63" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AO63" s="17">
         <v>38.4</v>
@@ -8852,7 +8801,7 @@
         <v>269</v>
       </c>
       <c r="BF63" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BG63" s="17" t="s">
         <v>263</v>
@@ -8864,7 +8813,7 @@
         <v>265</v>
       </c>
       <c r="BJ63" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BK63" s="17" t="s">
         <v>263</v>
@@ -8873,7 +8822,7 @@
         <v>264</v>
       </c>
       <c r="BM63" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BN63" s="17">
         <v>34.5</v>
@@ -8932,7 +8881,7 @@
         <v>265</v>
       </c>
       <c r="O64" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P64" s="15">
         <v>36.35</v>
@@ -8953,7 +8902,7 @@
         <v>268</v>
       </c>
       <c r="V64" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W64" s="15">
         <v>2015.0</v>
@@ -8968,7 +8917,7 @@
         <v>284</v>
       </c>
       <c r="AC64" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG64" s="15" t="s">
         <v>324</v>
@@ -8983,7 +8932,7 @@
         <v>265</v>
       </c>
       <c r="AK64" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL64" s="15" t="s">
         <v>263</v>
@@ -8992,7 +8941,7 @@
         <v>264</v>
       </c>
       <c r="AN64" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO64" s="15">
         <v>36.35</v>
@@ -9013,7 +8962,7 @@
         <v>268</v>
       </c>
       <c r="AU64" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AV64" s="15">
         <v>2015.0</v>
@@ -9066,7 +9015,7 @@
         <v>264</v>
       </c>
       <c r="O65" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P65" s="17">
         <v>36.4</v>
@@ -9087,7 +9036,7 @@
         <v>268</v>
       </c>
       <c r="V65" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W65" s="17">
         <v>2015.0</v>
@@ -9116,7 +9065,7 @@
       <c r="IU65" s="21"/>
       <c r="IV65" s="21"/>
       <c r="IW65" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66">
@@ -9148,7 +9097,7 @@
         <v>265</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P66" s="15">
         <v>41.0</v>
@@ -9169,7 +9118,7 @@
         <v>268</v>
       </c>
       <c r="V66" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W66" s="15">
         <v>2019.0</v>
@@ -9178,13 +9127,13 @@
         <v>269</v>
       </c>
       <c r="Y66" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Z66" s="15" t="s">
         <v>284</v>
       </c>
       <c r="AG66" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH66" s="15" t="s">
         <v>263</v>
@@ -9196,7 +9145,7 @@
         <v>265</v>
       </c>
       <c r="AN66" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AO66" s="15">
         <v>41.0</v>
@@ -9217,7 +9166,7 @@
         <v>268</v>
       </c>
       <c r="AU66" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AV66" s="15">
         <v>2019.0</v>
@@ -9249,10 +9198,10 @@
         <v>259</v>
       </c>
       <c r="F67" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="H67" s="17" t="s">
         <v>434</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>435</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>263</v>
@@ -9264,7 +9213,7 @@
         <v>265</v>
       </c>
       <c r="O67" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P67" s="17">
         <v>37.0</v>
@@ -9285,7 +9234,7 @@
         <v>268</v>
       </c>
       <c r="V67" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W67" s="17">
         <v>2019.0</v>
@@ -9325,7 +9274,7 @@
         <v>360</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M68" s="7" t="s">
         <v>288</v>
@@ -9334,7 +9283,7 @@
         <v>268</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P68" s="7">
         <v>54.7</v>
@@ -9629,7 +9578,7 @@
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
       <c r="O69" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P69" s="11">
         <v>38.0</v>
@@ -9899,10 +9848,10 @@
         <v>45788.58684625</v>
       </c>
       <c r="B70" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>404</v>
       </c>
       <c r="D70" s="15">
         <v>69.0</v>
@@ -9923,7 +9872,7 @@
         <v>265</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P70" s="15">
         <v>34.4208</v>
@@ -9944,7 +9893,7 @@
         <v>274</v>
       </c>
       <c r="V70" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="W70" s="15">
         <v>1958.0</v>
@@ -9965,7 +9914,7 @@
         <v>284</v>
       </c>
       <c r="AC70" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD70" s="15">
         <v>32.5</v>
@@ -10021,7 +9970,7 @@
         <v>265</v>
       </c>
       <c r="L71" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M71" s="17" t="s">
         <v>263</v>
@@ -10030,7 +9979,7 @@
         <v>264</v>
       </c>
       <c r="O71" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P71" s="17">
         <v>34.453</v>
@@ -10051,7 +10000,7 @@
         <v>274</v>
       </c>
       <c r="V71" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W71" s="17">
         <v>1969.0</v>
@@ -10072,7 +10021,7 @@
         <v>284</v>
       </c>
       <c r="AC71" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AD71" s="17">
         <v>34.5</v>
@@ -10099,7 +10048,7 @@
       <c r="IU71" s="21"/>
       <c r="IV71" s="21"/>
       <c r="IW71" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72">
@@ -10107,10 +10056,10 @@
         <v>45834.68698363426</v>
       </c>
       <c r="B72" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>404</v>
       </c>
       <c r="D72" s="15">
         <v>71.0</v>
@@ -10119,7 +10068,7 @@
         <v>261</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I72" s="15" t="s">
         <v>288</v>
@@ -10131,7 +10080,7 @@
         <v>360</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M72" s="15" t="s">
         <v>263</v>
@@ -10140,7 +10089,7 @@
         <v>264</v>
       </c>
       <c r="O72" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P72" s="15">
         <v>41.8</v>
@@ -10161,7 +10110,7 @@
         <v>268</v>
       </c>
       <c r="V72" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W72" s="15">
         <v>2020.0</v>
@@ -10176,13 +10125,13 @@
         <v>269</v>
       </c>
       <c r="AC72" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AD72" s="29">
         <v>50.0</v>
       </c>
       <c r="AE72" s="29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF72" s="30"/>
     </row>
@@ -10191,10 +10140,10 @@
         <v>45834.693260555556</v>
       </c>
       <c r="B73" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>404</v>
       </c>
       <c r="D73" s="17">
         <v>72.0</v>
@@ -10215,7 +10164,7 @@
         <v>265</v>
       </c>
       <c r="O73" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P73" s="17">
         <v>41.0518</v>
@@ -10236,7 +10185,7 @@
         <v>268</v>
       </c>
       <c r="V73" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W73" s="17">
         <v>2018.0</v>
@@ -10260,7 +10209,7 @@
         <v>264</v>
       </c>
       <c r="AN73" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AO73" s="17">
         <v>41.0518</v>
@@ -10281,7 +10230,7 @@
         <v>268</v>
       </c>
       <c r="AU73" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AV73" s="17">
         <v>2019.0</v>
@@ -10296,7 +10245,7 @@
         <v>284</v>
       </c>
       <c r="BF73" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="BG73" s="17" t="s">
         <v>263</v>
@@ -10308,7 +10257,7 @@
         <v>265</v>
       </c>
       <c r="BM73" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BN73" s="17">
         <v>41.0518</v>
@@ -10329,7 +10278,7 @@
         <v>268</v>
       </c>
       <c r="BT73" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BU73" s="17">
         <v>2018.0</v>
@@ -10344,7 +10293,7 @@
         <v>284</v>
       </c>
       <c r="CE73" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CF73" s="17" t="s">
         <v>263</v>
@@ -10353,7 +10302,7 @@
         <v>264</v>
       </c>
       <c r="CL73" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="CM73" s="17">
         <v>41.0518</v>
@@ -10374,7 +10323,7 @@
         <v>268</v>
       </c>
       <c r="CS73" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="CT73" s="17">
         <v>2019.0</v>
@@ -10394,10 +10343,10 @@
         <v>45838.52682344908</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>404</v>
       </c>
       <c r="D74" s="15">
         <v>73.0</v>
@@ -10406,7 +10355,7 @@
         <v>261</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I74" s="15" t="s">
         <v>263</v>
@@ -10418,7 +10367,7 @@
         <v>265</v>
       </c>
       <c r="O74" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P74" s="15">
         <v>41.0518</v>
@@ -10439,7 +10388,7 @@
         <v>268</v>
       </c>
       <c r="V74" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W74" s="15">
         <v>2014.0</v>
@@ -10448,7 +10397,7 @@
         <v>269</v>
       </c>
       <c r="AG74" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH74" s="15" t="s">
         <v>263</v>
@@ -10460,7 +10409,7 @@
         <v>265</v>
       </c>
       <c r="AN74" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO74" s="15">
         <v>41.0518</v>
@@ -10481,7 +10430,7 @@
         <v>268</v>
       </c>
       <c r="AU74" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AV74" s="15">
         <v>2015.0</v>
@@ -10495,10 +10444,10 @@
         <v>45859.69089540509</v>
       </c>
       <c r="B75" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>404</v>
       </c>
       <c r="D75" s="17">
         <v>74.0</v>
@@ -10507,7 +10456,7 @@
         <v>261</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I75" s="17" t="s">
         <v>263</v>
@@ -10519,7 +10468,7 @@
         <v>265</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M75" s="17" t="s">
         <v>263</v>
@@ -10528,7 +10477,7 @@
         <v>264</v>
       </c>
       <c r="O75" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P75" s="17">
         <v>44.65</v>
@@ -10549,7 +10498,7 @@
         <v>268</v>
       </c>
       <c r="V75" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W75" s="17">
         <v>2016.0</v>
@@ -10558,13 +10507,13 @@
         <v>269</v>
       </c>
       <c r="Y75" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Z75" s="17" t="s">
         <v>284</v>
       </c>
       <c r="AC75" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AD75" s="17">
         <v>32.5</v>
@@ -10578,10 +10527,10 @@
         <v>45859.69428454861</v>
       </c>
       <c r="B76" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="C76" s="32" t="s">
         <v>403</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>404</v>
       </c>
       <c r="D76" s="32">
         <v>75.0</v>
@@ -10590,7 +10539,7 @@
         <v>261</v>
       </c>
       <c r="H76" s="33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I76" s="33" t="s">
         <v>263</v>
@@ -10605,7 +10554,7 @@
       <c r="M76" s="34"/>
       <c r="N76" s="34"/>
       <c r="O76" s="33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P76" s="35">
         <v>42.0</v>
@@ -10639,13 +10588,13 @@
       <c r="AA76" s="34"/>
       <c r="AB76" s="34"/>
       <c r="AC76" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AD76" s="34"/>
       <c r="AE76" s="34"/>
       <c r="AF76" s="34"/>
       <c r="AG76" s="36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH76" s="36" t="s">
         <v>263</v>
@@ -10660,7 +10609,7 @@
       <c r="AL76" s="34"/>
       <c r="AM76" s="34"/>
       <c r="AN76" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AO76" s="37">
         <v>42.0</v>
@@ -10694,7 +10643,7 @@
       <c r="AZ76" s="34"/>
       <c r="BA76" s="34"/>
       <c r="BB76" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
